--- a/classfiers/nano/welm/smote/nano_welm_tanh_smote_results.xlsx
+++ b/classfiers/nano/welm/smote/nano_welm_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7816901408450704</v>
+        <v>0.7242268041237113</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5645933014354066</v>
+        <v>0.4338624338624338</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7173252279635258</v>
+        <v>0.6051660516605165</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9321103344872445</v>
+        <v>0.8585919013054691</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7276995305164319</v>
+        <v>0.6770025839793282</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4528301886792453</v>
+        <v>0.3475935828877005</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6233766233766235</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8338145829659672</v>
+        <v>0.7047326203208555</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7230046948356808</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4405940594059406</v>
+        <v>0.5978835978835979</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6013513513513513</v>
+        <v>0.6766467065868264</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8804367043847242</v>
+        <v>0.7922077922077922</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6995305164319249</v>
+        <v>0.7260981912144703</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3904761904761905</v>
+        <v>0.4820512820512821</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5616438356164384</v>
+        <v>0.6394557823129252</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7023148148148148</v>
+        <v>0.8965411324786325</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7769953051643192</v>
+        <v>0.6201550387596899</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7327586206896551</v>
+        <v>0.2932692307692308</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7816091954022988</v>
+        <v>0.4535315985130112</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8928190543903306</v>
+        <v>0.8986355822948001</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7417840375586854</v>
+        <v>0.6936825701270679</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5162504721372876</v>
+        <v>0.430932025490849</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6570612467420476</v>
+        <v>0.5769208121283813</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8482990982086163</v>
+        <v>0.8301418057215099</v>
       </c>
     </row>
   </sheetData>
